--- a/Data/Excel/FCFS/9.xlsx
+++ b/Data/Excel/FCFS/9.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.53</v>
+        <v>52.86</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.99</v>
+        <v>52.33</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.46</v>
+        <v>51.79</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.93</v>
+        <v>51.26</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.39</v>
+        <v>50.73</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.86</v>
+        <v>50.19</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.33</v>
+        <v>49.66</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.79</v>
+        <v>49.13</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.26</v>
+        <v>48.59</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.73</v>
+        <v>48.06</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.19</v>
+        <v>47.53</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.66</v>
+        <v>46.99</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.13</v>
+        <v>46.46</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.59</v>
+        <v>45.93</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.06</v>
+        <v>45.39</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.53</v>
+        <v>44.86</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.99</v>
+        <v>44.33</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.46</v>
+        <v>43.79</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.93</v>
+        <v>43.26</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.39</v>
+        <v>42.73</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.86</v>
+        <v>42.19</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.33</v>
+        <v>41.66</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.79</v>
+        <v>41.13</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.26</v>
+        <v>40.59</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.73</v>
+        <v>40.06</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.19</v>
+        <v>39.53</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.66</v>
+        <v>38.99</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.13</v>
+        <v>38.46</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.59</v>
+        <v>37.93</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.06</v>
+        <v>37.39</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.53</v>
+        <v>36.86</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.99</v>
+        <v>36.33</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.46</v>
+        <v>35.79</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.93</v>
+        <v>35.26</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1133,6 +1133,1046 @@
         <v>3.14</v>
       </c>
       <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1147,7 +2187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>56.43</v>
+        <v>60.3</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -1215,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>55.77</v>
+        <v>59.64</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -1235,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>55.12</v>
+        <v>58.99</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -1255,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>54.47</v>
+        <v>58.35</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -1275,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>53.83</v>
+        <v>57.7</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -1295,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>53.19</v>
+        <v>57.07</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -1315,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>52.56</v>
+        <v>56.43</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -1335,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>51.93</v>
+        <v>55.8</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -1355,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>51.31</v>
+        <v>55.18</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -1375,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>50.68</v>
+        <v>54.56</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -1395,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.06</v>
+        <v>53.94</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -1415,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>49.44</v>
+        <v>53.32</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -1435,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>48.83</v>
+        <v>52.7</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -1455,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>48.21</v>
+        <v>52.09</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -1475,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6</v>
+        <v>51.47</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -1495,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>46.99</v>
+        <v>50.86</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -1515,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.38</v>
+        <v>50.25</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -1535,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>45.77</v>
+        <v>49.64</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -1555,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>45.16</v>
+        <v>49.03</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -1575,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>44.55</v>
+        <v>48.43</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -1595,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>43.95</v>
+        <v>47.82</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -1615,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>43.34</v>
+        <v>47.22</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -1635,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>42.74</v>
+        <v>46.61</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -1655,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>42.13</v>
+        <v>46.01</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -1675,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>41.53</v>
+        <v>45.4</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -1695,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>40.93</v>
+        <v>44.8</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -1715,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>40.32</v>
+        <v>44.2</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -1735,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>39.72</v>
+        <v>43.59</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -1755,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>39.12</v>
+        <v>42.99</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -1775,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>38.52</v>
+        <v>42.39</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -1795,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>37.91</v>
+        <v>41.79</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -1815,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>37.31</v>
+        <v>41.18</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -1835,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>36.71</v>
+        <v>40.58</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -1855,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>36.11</v>
+        <v>39.98</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -1864,6 +2904,1046 @@
         <v>-1.57</v>
       </c>
       <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32.17</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1878,7 +3958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1923,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.93</v>
+        <v>-55.92</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -1943,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-42.27</v>
+        <v>-55.26</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1963,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-41.61</v>
+        <v>-54.61</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1983,7 +4063,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-40.97</v>
+        <v>-53.96</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -2003,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-40.32</v>
+        <v>-53.32</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -2023,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-39.69</v>
+        <v>-52.68</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -2043,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-39.05</v>
+        <v>-52.05</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -2063,7 +4143,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-38.43</v>
+        <v>-51.42</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -2083,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-37.8</v>
+        <v>-50.79</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -2103,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-37.18</v>
+        <v>-50.17</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -2123,7 +4203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-36.56</v>
+        <v>-49.55</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -2143,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-35.94</v>
+        <v>-48.93</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -2163,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-35.32</v>
+        <v>-48.31</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -2183,7 +4263,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-34.71</v>
+        <v>-47.7</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -2203,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-34.09</v>
+        <v>-47.09</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -2223,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-33.48</v>
+        <v>-46.48</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -2243,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-32.87</v>
+        <v>-45.87</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -2263,7 +4343,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-32.26</v>
+        <v>-45.26</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -2283,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-31.66</v>
+        <v>-44.65</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -2303,7 +4383,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-31.05</v>
+        <v>-44.04</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -2323,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-30.44</v>
+        <v>-43.44</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -2343,7 +4423,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-29.84</v>
+        <v>-42.83</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -2363,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-29.23</v>
+        <v>-42.22</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -2383,7 +4463,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-28.63</v>
+        <v>-41.62</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -2403,7 +4483,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.02</v>
+        <v>-41.02</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -2423,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-27.42</v>
+        <v>-40.41</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -2443,7 +4523,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-26.82</v>
+        <v>-39.81</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -2463,7 +4543,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-26.21</v>
+        <v>-39.21</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -2483,7 +4563,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-25.61</v>
+        <v>-38.6</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -2503,7 +4583,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-25.01</v>
+        <v>-38</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -2523,7 +4603,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-24.41</v>
+        <v>-37.4</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -2543,7 +4623,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-23.81</v>
+        <v>-36.8</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -2563,7 +4643,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-23.2</v>
+        <v>-36.2</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -2583,7 +4663,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-22.6</v>
+        <v>-35.6</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -2595,6 +4675,1046 @@
         <v>-0</v>
       </c>
       <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-34.99</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-34.39</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-33.79</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-33.19</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-32.59</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-31.99</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-31.39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-30.79</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-30.19</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-29.62</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-29.08</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-28.57</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-28.09</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-27.62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-27.17</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-26.77</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-26.42</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-25.82</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-25.57</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-25.35</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-25.16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-24.98</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-24.83</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-24.69</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-24.57</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-24.46</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-24.36</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-24.27</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-24.13</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-24.07</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-24.01</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-23.97</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-23.92</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-23.89</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-23.85</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-23.82</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-23.73</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-23.72</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-23.69</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-23.68</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-23.67</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-23.66</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-23.62</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-23.55</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-23.45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-23.33</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +5729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2657,7 +5777,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-44.04</v>
+        <v>-45.68</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2677,7 +5797,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.38</v>
+        <v>-45.02</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2697,7 +5817,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-42.73</v>
+        <v>-44.37</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2717,7 +5837,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-42.08</v>
+        <v>-43.72</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2737,7 +5857,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-41.44</v>
+        <v>-43.08</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2757,7 +5877,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.8</v>
+        <v>-42.44</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2777,7 +5897,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-40.17</v>
+        <v>-41.81</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2797,7 +5917,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-39.54</v>
+        <v>-41.18</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2817,7 +5937,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-38.92</v>
+        <v>-40.55</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2837,7 +5957,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-38.29</v>
+        <v>-39.93</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2857,7 +5977,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-37.67</v>
+        <v>-39.31</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2877,7 +5997,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-37.05</v>
+        <v>-38.69</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2897,7 +6017,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-36.44</v>
+        <v>-38.08</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2917,7 +6037,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-35.82</v>
+        <v>-37.46</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2937,7 +6057,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-35.21</v>
+        <v>-36.85</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2957,7 +6077,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-34.6</v>
+        <v>-36.24</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2977,7 +6097,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-33.99</v>
+        <v>-35.63</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2997,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-33.38</v>
+        <v>-35.02</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -3017,7 +6137,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-32.77</v>
+        <v>-34.41</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -3037,7 +6157,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-32.17</v>
+        <v>-33.8</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -3057,7 +6177,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-31.56</v>
+        <v>-33.2</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -3077,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-30.95</v>
+        <v>-32.59</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -3097,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-30.35</v>
+        <v>-31.99</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -3117,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-29.74</v>
+        <v>-31.38</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -3137,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-29.14</v>
+        <v>-30.78</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -3157,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-28.54</v>
+        <v>-30.17</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -3177,7 +6297,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-27.93</v>
+        <v>-29.57</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -3197,7 +6317,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-27.33</v>
+        <v>-28.97</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -3217,7 +6337,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-26.73</v>
+        <v>-28.37</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -3237,7 +6357,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-26.13</v>
+        <v>-27.76</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -3257,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-25.52</v>
+        <v>-27.16</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -3277,10 +6397,10 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-24.92</v>
+        <v>-26.56</v>
       </c>
       <c r="D33" t="n">
-        <v>8.52</v>
+        <v>9.02</v>
       </c>
       <c r="E33" t="n">
         <v>1.57</v>
@@ -3297,10 +6417,10 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-24.35</v>
+        <v>-25.96</v>
       </c>
       <c r="D34" t="n">
-        <v>8.08</v>
+        <v>9.02</v>
       </c>
       <c r="E34" t="n">
         <v>1.57</v>
@@ -3317,15 +6437,1055 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-23.82</v>
+        <v>-25.36</v>
       </c>
       <c r="D35" t="n">
-        <v>7.68</v>
+        <v>9.02</v>
       </c>
       <c r="E35" t="n">
         <v>1.57</v>
       </c>
       <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-24.76</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-24.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-23.55</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-22.95</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-22.35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-21.75</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-21.15</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-20.55</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-19.95</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-19.35</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-18.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-18.15</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-17.55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-16.95</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-16.35</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-15.15</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-14.55</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-13.95</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-13.35</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-12.15</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-6.32</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-5.78</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
